--- a/cbrunner/Parameters/Parameters_BySilvObjective.xlsx
+++ b/cbrunner/Parameters/Parameters_BySilvObjective.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3454092-AFF0-4D61-B497-43BD0F5D48DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5D2CA4-5171-4880-97AB-CBC32D7B36A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="0" windowWidth="9888" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -748,20 +748,20 @@
   <dimension ref="B1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="64.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,142 +783,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -929,67 +929,67 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
@@ -997,7 +997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1013,342 +1013,342 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>115</v>
       </c>
@@ -1359,6 +1359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2DDEE06AF721C4F84DFC6CCC3312466" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfe1f04086ac4112da9680cac604272f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56ac9dff-97dc-464e-91bf-d8fe70a7b666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f42f36c97a62bb7c3858307fd7d0499" ns2:_="">
     <xsd:import namespace="56ac9dff-97dc-464e-91bf-d8fe70a7b666"/>
@@ -1504,16 +1513,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE46A8F7-AFA8-4F5F-8B53-6A5EF6D2176E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1529,12 +1537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>